--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/ARKANSAS_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/ARKANSAS_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D996"/>
+  <dimension ref="A1:D990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C12">
@@ -693,7 +693,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C25">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C28">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C31">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C46">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C49">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C54">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C77">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C83">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C85">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C98">
@@ -1821,7 +1821,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C110">
@@ -1943,7 +1943,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C123">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C137">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C151">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C154">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C161">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C162">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C174">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C179">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C183">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C189">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C193">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C200">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C208">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C214">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C218">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C223">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C232">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C233">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C241">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C244">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C255">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C257">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C259">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C260">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C262">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C266">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C272">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C278">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C282">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C287">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C290">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C296">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C305">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C307">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C310">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C313">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C320">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C323">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C327">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C331">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C334">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C339">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C341">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C345">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C349">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C351">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C356">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C363">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C364">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C376">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C379">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C384">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C388">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C392">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C397">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C400">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C401">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C403">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C405">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C412">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C415">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C418">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C431">
@@ -6650,7 +6650,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C478">
@@ -6980,7 +6980,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C503">
@@ -7032,7 +7032,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C507">
@@ -7084,7 +7084,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C511">
@@ -7097,7 +7097,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C512">
@@ -7162,7 +7162,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C517">
@@ -7484,7 +7484,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C541">
@@ -7536,7 +7536,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C545">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C548">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C559">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C561">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C565">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C568">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C571">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C573">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C580">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C646">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C649">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C651">
@@ -9210,7 +9210,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C673">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C674">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C677">
@@ -9340,7 +9340,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C683">
@@ -9548,7 +9548,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C699">
@@ -9561,7 +9561,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C700">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C711">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C720">
@@ -9852,7 +9852,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C722">
@@ -9930,7 +9930,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C728">
@@ -9943,7 +9943,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C729">
@@ -9969,7 +9969,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C731">
@@ -9995,7 +9995,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C733">
@@ -10109,7 +10109,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C741">
@@ -10161,7 +10161,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C745">
@@ -10265,7 +10265,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C753">
@@ -10343,7 +10343,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C759">
@@ -10363,7 +10363,7 @@
         <v>63</v>
       </c>
       <c r="D760">
-        <v>0.009334716254259891</v>
+        <v>0.009334716254259893</v>
       </c>
     </row>
     <row r="761">
@@ -10408,7 +10408,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C764">
@@ -10434,7 +10434,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C766">
@@ -10499,7 +10499,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C771">
@@ -10551,7 +10551,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C775">
@@ -10564,7 +10564,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C776">
@@ -10577,7 +10577,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C777">
@@ -10590,7 +10590,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C778">
@@ -10603,7 +10603,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C779">
@@ -11551,7 +11551,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C850">
@@ -11603,7 +11603,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C854">
@@ -11725,7 +11725,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C863">
@@ -11764,7 +11764,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C866">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C869">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C871">
@@ -11855,7 +11855,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C873">
@@ -11959,7 +11959,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C881">
@@ -12102,7 +12102,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C892">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C893">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C895">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C903">
@@ -12271,7 +12271,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C905">
@@ -12284,7 +12284,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C906">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C908">
@@ -12414,7 +12414,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C916">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C920">
@@ -12518,7 +12518,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C924">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C942">
@@ -13100,7 +13100,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C968">
@@ -13113,7 +13113,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C969">
@@ -13126,7 +13126,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C970">
@@ -13243,7 +13243,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C979">
@@ -13256,7 +13256,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C980">
@@ -13295,7 +13295,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C983">
@@ -13394,41 +13394,6 @@
       </c>
       <c r="D990">
         <v>1</v>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
